--- a/biology/Médecine/Maladie_de_Degos/Maladie_de_Degos.xlsx
+++ b/biology/Médecine/Maladie_de_Degos/Maladie_de_Degos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La maladie de Degos (aussi appelée papulose atrophiante maligne) est une vasculopathie extrêmement rare qui affecte le revêtement intérieur des petites et moyennes veines, ce qui entraîne l'occlusion (blocage du vaisseau) et des infarctus du tissu.
-La maladie prend son nom de Robert Degos qui l’a reconnue comme une entité clinique en 1942, après qu'elle a été décrite, en premier, par l'anatomopathologiste autrichien Walter Köhlmeier en 1941[1].
+La maladie prend son nom de Robert Degos qui l’a reconnue comme une entité clinique en 1942, après qu'elle a été décrite, en premier, par l'anatomopathologiste autrichien Walter Köhlmeier en 1941.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Cause</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est inconnue. Il existe peut-être une participation génétique avec l'existence de formes familiales[2]. Il semble exister une dérégulation de la réponse à l'interféron-alpha[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est inconnue. Il existe peut-être une participation génétique avec l'existence de formes familiales. Il semble exister une dérégulation de la réponse à l'interféron-alpha.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il y a moins de cinquante malades vivants, dans le monde à ce jour. Moins de 200 cas ont été rapportés dans la littérature médicale. Elle est plus fréquente chez l'adulte de type caucasien[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il y a moins de cinquante malades vivants, dans le monde à ce jour. Moins de 200 cas ont été rapportés dans la littérature médicale. Elle est plus fréquente chez l'adulte de type caucasien.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les vaisseaux sanguins affectés sont ceux qui fournissent la peau, le tube digestif et le système nerveux. Cela conduit à une ischémie de l'intestin avec possible perforation[5], des lésions chroniques de la peau, lésions oculaires, accidents vasculaires cérébraux, lésions de la moelle épinière, mononévrite multiple (anciennement dénommée multinévrite), épilepsie, maux de tête ou troubles cognitifs. Des épanchements pleuraux ou péricardiques sont également signalés.
-Sa similitude avec le lupus érythémateux disséminé[6] ou simplement cutanée[7] a été soulignée.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les vaisseaux sanguins affectés sont ceux qui fournissent la peau, le tube digestif et le système nerveux. Cela conduit à une ischémie de l'intestin avec possible perforation, des lésions chroniques de la peau, lésions oculaires, accidents vasculaires cérébraux, lésions de la moelle épinière, mononévrite multiple (anciennement dénommée multinévrite), épilepsie, maux de tête ou troubles cognitifs. Des épanchements pleuraux ou péricardiques sont également signalés.
+Sa similitude avec le lupus érythémateux disséminé ou simplement cutanée a été soulignée.
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Évolution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette maladie peut-être fatale au bout de 2 ou 3 ans en moyenne, bien que dans certains cas, une forme bénigne puisse apparaitre (on parle alors d'acanthose de Degos) qui affecte uniquement la peau. Cette forme atteint plutôt les femmes, sans spécificité biologique[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette maladie peut-être fatale au bout de 2 ou 3 ans en moyenne, bien que dans certains cas, une forme bénigne puisse apparaitre (on parle alors d'acanthose de Degos) qui affecte uniquement la peau. Cette forme atteint plutôt les femmes, sans spécificité biologique.
 </t>
         </is>
       </c>
@@ -637,9 +657,11 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les options de traitement sont limitées. Elles consistent principalement à des médicaments antiplaquettaires[8], anticoagulants ou des immunosuppresseurs[9]. Le traitement par antiagrégants plaquettaires permet parfois une rémission des signes cutanés, récidivant à leur arrêt[10].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les options de traitement sont limitées. Elles consistent principalement à des médicaments antiplaquettaires, anticoagulants ou des immunosuppresseurs. Le traitement par antiagrégants plaquettaires permet parfois une rémission des signes cutanés, récidivant à leur arrêt.
 </t>
         </is>
       </c>
